--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rc98e236a26714a0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R565f23383bb74cbf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R565f23383bb74cbf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R0d1418139ec948c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R0d1418139ec948c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R5343b49286384dda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R5343b49286384dda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R90a9d619b9bc4d65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R90a9d619b9bc4d65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf16fef4589744bb5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf16fef4589744bb5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Ra20bdc3160ac44d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Ra20bdc3160ac44d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R8eaa6ac615b44d27"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R8eaa6ac615b44d27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R4ddfbacb51db41bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R4ddfbacb51db41bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R08307cd667ab4bc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R08307cd667ab4bc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Re5eb2fcf78bc40ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Re5eb2fcf78bc40ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Redfcf447c8cd4ca9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Redfcf447c8cd4ca9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf1f1428dab1b4a5a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rf1f1428dab1b4a5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rae2aa2d6925844a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="Rae2aa2d6925844a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R798ea2a6bc78420f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R798ea2a6bc78420f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R8b474b9385e0415a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R8b474b9385e0415a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R6fe0e18b68984834"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R6fe0e18b68984834"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R5045d395ed184ebc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/67_JsonDateNumberFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R5045d395ed184ebc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formatted Prices" sheetId="1" r:id="R3e80074a74644c3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
